--- a/URS/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
+++ b/URS/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB46524-E394-430F-95B3-FBD19DC4A8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="236">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -927,11 +926,15 @@
 4.貸後契變手續費</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1283,6 +1286,9 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1295,13 +1301,10 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
     <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1393,23 +1396,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1445,23 +1431,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1637,29 +1606,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="5.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1671,8 +1640,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
@@ -1683,11 +1652,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="12" t="s">
         <v>60</v>
       </c>
@@ -1699,10 +1668,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1710,10 +1679,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>55</v>
       </c>
@@ -1723,10 +1692,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
@@ -1736,10 +1705,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1787,7 +1756,7 @@
       </c>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="48.6">
+    <row r="10" spans="1:7" ht="49.5">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -1861,7 +1830,7 @@
       </c>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="243">
+    <row r="14" spans="1:7" ht="247.5">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -1915,7 +1884,7 @@
       <c r="E16" s="22">
         <v>2</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="39" t="s">
         <v>233</v>
       </c>
     </row>
@@ -1991,7 +1960,7 @@
       </c>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:7" ht="64.8">
+    <row r="21" spans="1:7" ht="66">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -2268,7 +2237,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G16" location="提回!A1" display="提回規格" xr:uid="{32B8814A-DE03-456D-B197-79A0CF14E684}"/>
+    <hyperlink ref="G16" location="提回!A1" display="提回規格"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2276,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2284,10 +2253,10 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -2341,26 +2310,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7A393D-5E55-4711-B44A-D399B7A921AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
     <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>204</v>
       </c>
@@ -3408,26 +3377,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEF8506-5515-44DF-858E-03B8D7958660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.8" thickBot="1">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>204</v>
       </c>
@@ -3703,7 +3674,9 @@
       <c r="H10" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="31" t="s">
+        <v>235</v>
+      </c>
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10">
@@ -4633,5 +4606,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>